--- a/docs/database/產品名稱對照表.xlsx
+++ b/docs/database/產品名稱對照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GameForum\FinalProject_GameForum\docs\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E93E0D67-20AB-4C50-82D9-DF0324A7C846}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DFBF17-92BE-4940-9882-F0BCEEE472E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{F0A722E8-B225-4A44-A891-A97333D061C4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>產品名稱中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,13 +87,83 @@
   </si>
   <si>
     <t>iDcNoftp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>《寶可夢傳說</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Z-A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>》中文版</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c3e31c072302c6787a27d354cb1tb835</t>
+  </si>
+  <si>
+    <t>ed53f5558e4f572831d1625ba61qf535</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《瑪利歐 &amp; 路易吉 RPG 兄弟齊航！》中文版</t>
+  </si>
+  <si>
+    <t>《死亡擱淺 2：冥灘之上》中文一般版</t>
+  </si>
+  <si>
+    <t>7f1bdb440c79c792290d3d31731tgil5</t>
+  </si>
+  <si>
+    <t>SteelSeries Nimbus+ Apple 專用無線遊戲控制器</t>
+  </si>
+  <si>
+    <t>c515f74084441a1527808b06c71q8195</t>
+  </si>
+  <si>
+    <t>ASUS ROG Pelta 無線電競耳機麥克風</t>
+  </si>
+  <si>
+    <t>80e81c3955c108e307a0fd81c51sp3c5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《初音未來 Project DIVA MEGA39's+》中文一般版</t>
+  </si>
+  <si>
+    <t>cb3995bdea0bc3000c25df20d51gedp5</t>
+  </si>
+  <si>
+    <t>《人中之龍 7 外傳 英雄無名》中文版</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c38cdb10d4687c125f38c809561nhq95 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,6 +178,23 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,8 +219,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -450,16 +540,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55573E88-59A1-4DD0-9AB3-44A918727395}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="43.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,6 +622,62 @@
       </c>
       <c r="B9" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/database/產品名稱對照表.xlsx
+++ b/docs/database/產品名稱對照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GameForum\FinalProject_GameForum\docs\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DFBF17-92BE-4940-9882-F0BCEEE472E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A973A12-1AA2-423E-A90E-51A1BC9C8F89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{F0A722E8-B225-4A44-A891-A97333D061C4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>產品名稱中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,28 @@
   </si>
   <si>
     <t xml:space="preserve">c38cdb10d4687c125f38c809561nhq95 </t>
+  </si>
+  <si>
+    <t>《靈魂駭客 2》中文豪華版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《超次元戰記 戰機少女 Game Maker R:Evolution》中文一般版</t>
+  </si>
+  <si>
+    <t>44c83c71d3397cc70dc26e4ee61t3tq5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">f1ea44901c2344c284ef6a54661h83r5 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《奧咕和秘密森林》中文豪華版</t>
+  </si>
+  <si>
+    <t>487e0cf6760356e788a07fb4911t8zm5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -540,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55573E88-59A1-4DD0-9AB3-44A918727395}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -680,6 +702,30 @@
         <v>31</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
